--- a/strategy_hist_sum/residual_analysis_5_lv_3.xlsx
+++ b/strategy_hist_sum/residual_analysis_5_lv_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>F</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>reR</t>
+  </si>
+  <si>
+    <t>5_3</t>
   </si>
   <si>
     <t>▲</t>
@@ -402,6 +405,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,13 +438,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -469,7 +475,7 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
